--- a/table_model___spi-12__lasso_($\beta_=_$0.0).xlsx
+++ b/table_model___spi-12__lasso_($\beta_=_$0.0).xlsx
@@ -693,7 +693,7 @@
         <v>0.1976983748519136</v>
       </c>
       <c r="C2">
-        <v>0.1909770313796819</v>
+        <v>0.1931809676459194</v>
       </c>
       <c r="D2">
         <v>0.1929352307022708</v>
@@ -848,7 +848,7 @@
         <v>0.395810759163032</v>
       </c>
       <c r="C3">
-        <v>0.3935316986602116</v>
+        <v>0.3996566649694033</v>
       </c>
       <c r="D3">
         <v>0.3940535863276882</v>
@@ -1003,7 +1003,7 @@
         <v>0.4588311006654902</v>
       </c>
       <c r="C4">
-        <v>0.4577853128249979</v>
+        <v>0.4602448435348362</v>
       </c>
       <c r="D4">
         <v>0.4680952115743291</v>
@@ -1158,7 +1158,7 @@
         <v>0.5273779911979237</v>
       </c>
       <c r="C5">
-        <v>0.5253173332684017</v>
+        <v>0.5321724539119475</v>
       </c>
       <c r="D5">
         <v>0.5300801266697911</v>
@@ -1313,7 +1313,7 @@
         <v>0.7239792252405455</v>
       </c>
       <c r="C6">
-        <v>0.721412839097868</v>
+        <v>0.7579028661353813</v>
       </c>
       <c r="D6">
         <v>0.7136445871604511</v>
@@ -1468,7 +1468,7 @@
         <v>1.216962167759709</v>
       </c>
       <c r="C7">
-        <v>1.208895119842326</v>
+        <v>1.253562338231302</v>
       </c>
       <c r="D7">
         <v>1.213609182464615</v>
@@ -1623,7 +1623,7 @@
         <v>0.8442082131373494</v>
       </c>
       <c r="C8">
-        <v>0.8373334396261494</v>
+        <v>0.8660741495955956</v>
       </c>
       <c r="D8">
         <v>0.8320593011370744</v>
@@ -1778,7 +1778,7 @@
         <v>0.1839947734590524</v>
       </c>
       <c r="C9">
-        <v>0.1925235201277955</v>
+        <v>0.1818605364817396</v>
       </c>
       <c r="D9">
         <v>0.2023396436577218</v>
@@ -1933,7 +1933,7 @@
         <v>0.09217581358867992</v>
       </c>
       <c r="C10">
-        <v>0.08807819605323938</v>
+        <v>0.07977418509674408</v>
       </c>
       <c r="D10">
         <v>0.097877341095136</v>
@@ -2088,7 +2088,7 @@
         <v>-0.2524476868468452</v>
       </c>
       <c r="C11">
-        <v>-0.2732333127956454</v>
+        <v>-0.2970238499474278</v>
       </c>
       <c r="D11">
         <v>-0.2533017351214643</v>
@@ -2243,7 +2243,7 @@
         <v>-0.49341707038657</v>
       </c>
       <c r="C12">
-        <v>-0.4881193816435108</v>
+        <v>-0.507806226476132</v>
       </c>
       <c r="D12">
         <v>-0.4941876317835858</v>
@@ -2398,7 +2398,7 @@
         <v>-0.5362276113243937</v>
       </c>
       <c r="C13">
-        <v>-0.5314068638080565</v>
+        <v>-0.5515046536471334</v>
       </c>
       <c r="D13">
         <v>-0.5371382857963454</v>
@@ -2553,7 +2553,7 @@
         <v>-0.02234049973332134</v>
       </c>
       <c r="C14">
-        <v>-0.01367176425092929</v>
+        <v>0.02404072806993659</v>
       </c>
       <c r="D14">
         <v>-0.03121156396088494</v>
@@ -2708,7 +2708,7 @@
         <v>0.1461051558182671</v>
       </c>
       <c r="C15">
-        <v>0.1599447174746763</v>
+        <v>0.2057539375803512</v>
       </c>
       <c r="D15">
         <v>0.1469793240028411</v>
@@ -2863,7 +2863,7 @@
         <v>-0.09661067654672155</v>
       </c>
       <c r="C16">
-        <v>-0.08727167719410346</v>
+        <v>-0.0555252746796395</v>
       </c>
       <c r="D16">
         <v>-0.1240946930976233</v>
@@ -3018,7 +3018,7 @@
         <v>-0.1839466462609586</v>
       </c>
       <c r="C17">
-        <v>-0.1769654060276191</v>
+        <v>-0.1842593512688773</v>
       </c>
       <c r="D17">
         <v>-0.1784810051103875</v>
@@ -3173,7 +3173,7 @@
         <v>-0.1050656186750475</v>
       </c>
       <c r="C18">
-        <v>-0.09992625991271911</v>
+        <v>-0.117190169769105</v>
       </c>
       <c r="D18">
         <v>-0.08236082695451377</v>
@@ -3328,7 +3328,7 @@
         <v>-0.8805499689581598</v>
       </c>
       <c r="C19">
-        <v>-0.8786246391403882</v>
+        <v>-0.9219526200415645</v>
       </c>
       <c r="D19">
         <v>-0.8818136970590772</v>
@@ -3483,7 +3483,7 @@
         <v>-0.9691189084374211</v>
       </c>
       <c r="C20">
-        <v>-0.9691780058727467</v>
+        <v>-1.027631261042042</v>
       </c>
       <c r="D20">
         <v>-0.9690064876716181</v>
@@ -3638,7 +3638,7 @@
         <v>-0.9470606051439224</v>
       </c>
       <c r="C21">
-        <v>-0.9461953586128071</v>
+        <v>-0.994799733359641</v>
       </c>
       <c r="D21">
         <v>-0.9491791550475398</v>
@@ -3793,7 +3793,7 @@
         <v>-1.293105478658452</v>
       </c>
       <c r="C22">
-        <v>-1.290813681157426</v>
+        <v>-1.357523728040164</v>
       </c>
       <c r="D22">
         <v>-1.294753771013027</v>
@@ -3948,7 +3948,7 @@
         <v>-1.393327383086963</v>
       </c>
       <c r="C23">
-        <v>-1.385750287910787</v>
+        <v>-1.436363496252893</v>
       </c>
       <c r="D23">
         <v>-1.395369988627934</v>
@@ -4103,7 +4103,7 @@
         <v>-1.317490526884405</v>
       </c>
       <c r="C24">
-        <v>-1.313765687020497</v>
+        <v>-1.384375511964711</v>
       </c>
       <c r="D24">
         <v>-1.31847609421642</v>
@@ -4258,7 +4258,7 @@
         <v>-1.150664233469549</v>
       </c>
       <c r="C25">
-        <v>-1.146152729057745</v>
+        <v>-1.208523948690917</v>
       </c>
       <c r="D25">
         <v>-1.152093596526443</v>
@@ -4413,7 +4413,7 @@
         <v>-2.074691067028613</v>
       </c>
       <c r="C26">
-        <v>-2.087257633482816</v>
+        <v>-2.203514422569788</v>
       </c>
       <c r="D26">
         <v>-2.065688042997865</v>
@@ -4568,7 +4568,7 @@
         <v>-2.151563120730564</v>
       </c>
       <c r="C27">
-        <v>-2.163706074821052</v>
+        <v>-2.25383584010028</v>
       </c>
       <c r="D27">
         <v>-2.142156543835339</v>
@@ -4723,7 +4723,7 @@
         <v>-1.611460675709981</v>
       </c>
       <c r="C28">
-        <v>-1.618724213665914</v>
+        <v>-1.694002501593443</v>
       </c>
       <c r="D28">
         <v>-1.607205976984025</v>
@@ -4878,7 +4878,7 @@
         <v>-0.7265312228832308</v>
       </c>
       <c r="C29">
-        <v>-0.7240076586513459</v>
+        <v>-0.7388195486982237</v>
       </c>
       <c r="D29">
         <v>-0.7275192970118292</v>
@@ -5033,7 +5033,7 @@
         <v>-1.098725756813824</v>
       </c>
       <c r="C30">
-        <v>-1.099473740058021</v>
+        <v>-1.1353957149983</v>
       </c>
       <c r="D30">
         <v>-1.099127841039707</v>
@@ -5188,7 +5188,7 @@
         <v>-1.11241629471125</v>
       </c>
       <c r="C31">
-        <v>-1.112783830507241</v>
+        <v>-1.15191447423667</v>
       </c>
       <c r="D31">
         <v>-1.112363948564051</v>
@@ -5343,7 +5343,7 @@
         <v>-0.8583810835922838</v>
       </c>
       <c r="C32">
-        <v>-0.8562713796446345</v>
+        <v>-0.8765168772969435</v>
       </c>
       <c r="D32">
         <v>-0.8601046459403293</v>
@@ -5498,7 +5498,7 @@
         <v>-0.7217286981424927</v>
       </c>
       <c r="C33">
-        <v>-0.7193897168627323</v>
+        <v>-0.7341883454077257</v>
       </c>
       <c r="D33">
         <v>-0.7233073306267801</v>
@@ -5653,7 +5653,7 @@
         <v>-0.5451848004533068</v>
       </c>
       <c r="C34">
-        <v>-0.5423512077082884</v>
+        <v>-0.5542359184481118</v>
       </c>
       <c r="D34">
         <v>-0.5475604122101574</v>
@@ -5808,7 +5808,7 @@
         <v>-0.7017700840405336</v>
       </c>
       <c r="C35">
-        <v>-0.7000054232630119</v>
+        <v>-0.7170935443645891</v>
       </c>
       <c r="D35">
         <v>-0.7058501257290755</v>
@@ -5963,7 +5963,7 @@
         <v>-0.7003506676317769</v>
       </c>
       <c r="C36">
-        <v>-0.6983827913985744</v>
+        <v>-0.7163759421450732</v>
       </c>
       <c r="D36">
         <v>-0.7037415323486873</v>
@@ -6118,7 +6118,7 @@
         <v>-0.7885498077312956</v>
       </c>
       <c r="C37">
-        <v>-0.7879164213373631</v>
+        <v>-0.8078134098658957</v>
       </c>
       <c r="D37">
         <v>-0.7908927365279524</v>
@@ -6273,7 +6273,7 @@
         <v>-0.1699491137061928</v>
       </c>
       <c r="C38">
-        <v>-0.1703040018092092</v>
+        <v>-0.2074126431067658</v>
       </c>
       <c r="D38">
         <v>-0.1376726154153289</v>
@@ -6428,7 +6428,7 @@
         <v>-0.2110794862421878</v>
       </c>
       <c r="C39">
-        <v>-0.212570743279497</v>
+        <v>-0.1816222815636901</v>
       </c>
       <c r="D39">
         <v>-0.2408067800151552</v>
@@ -6583,7 +6583,7 @@
         <v>-0.5760802527710087</v>
       </c>
       <c r="C40">
-        <v>-0.5739741124630827</v>
+        <v>-0.58485141349193</v>
       </c>
       <c r="D40">
         <v>-0.5800123517850068</v>
@@ -6738,7 +6738,7 @@
         <v>-1.10553341082236</v>
       </c>
       <c r="C41">
-        <v>-1.106685068469526</v>
+        <v>-1.136309853296368</v>
       </c>
       <c r="D41">
         <v>-1.106244940558372</v>
@@ -6893,7 +6893,7 @@
         <v>-0.4552437459451225</v>
       </c>
       <c r="C42">
-        <v>-0.450409146786121</v>
+        <v>-0.4716908278625516</v>
       </c>
       <c r="D42">
         <v>-0.4444477420240652</v>
@@ -7048,7 +7048,7 @@
         <v>0.4890289184847305</v>
       </c>
       <c r="C43">
-        <v>0.4953312901890545</v>
+        <v>0.5869115600794291</v>
       </c>
       <c r="D43">
         <v>0.4872800555064537</v>
@@ -7203,7 +7203,7 @@
         <v>0.6439066825051187</v>
       </c>
       <c r="C44">
-        <v>0.6465518514876128</v>
+        <v>0.742580528021594</v>
       </c>
       <c r="D44">
         <v>0.6419440787731187</v>
@@ -7358,7 +7358,7 @@
         <v>0.9954789390600304</v>
       </c>
       <c r="C45">
-        <v>0.9930211284400162</v>
+        <v>1.090717274284225</v>
       </c>
       <c r="D45">
         <v>0.9970172124970476</v>
@@ -7513,7 +7513,7 @@
         <v>1.050523819462496</v>
       </c>
       <c r="C46">
-        <v>1.046676674357041</v>
+        <v>1.141012838903114</v>
       </c>
       <c r="D46">
         <v>1.052737777902352</v>
@@ -7668,7 +7668,7 @@
         <v>1.026819574583484</v>
       </c>
       <c r="C47">
-        <v>1.023588811200504</v>
+        <v>1.107826745279047</v>
       </c>
       <c r="D47">
         <v>1.029656335327592</v>
@@ -7823,7 +7823,7 @@
         <v>1.07417071396713</v>
       </c>
       <c r="C48">
-        <v>1.072414365717762</v>
+        <v>1.180343725096971</v>
       </c>
       <c r="D48">
         <v>1.078599659399195</v>
@@ -7978,7 +7978,7 @@
         <v>1.036703505771689</v>
       </c>
       <c r="C49">
-        <v>1.035524514893013</v>
+        <v>1.1413292403118</v>
       </c>
       <c r="D49">
         <v>1.040852769095445</v>
@@ -8133,7 +8133,7 @@
         <v>0.6786035387398476</v>
       </c>
       <c r="C50">
-        <v>0.6809729128331867</v>
+        <v>0.7454337975086591</v>
       </c>
       <c r="D50">
         <v>0.6769347390524493</v>
@@ -8288,7 +8288,7 @@
         <v>0.5222540352879669</v>
       </c>
       <c r="C51">
-        <v>0.5260980225415631</v>
+        <v>0.5852354106138273</v>
       </c>
       <c r="D51">
         <v>0.5190758573348148</v>
@@ -8443,7 +8443,7 @@
         <v>0.6767946244827368</v>
       </c>
       <c r="C52">
-        <v>0.680190647710204</v>
+        <v>0.7466603069525758</v>
       </c>
       <c r="D52">
         <v>0.6759682283375935</v>
@@ -8598,7 +8598,7 @@
         <v>1.284459631217256</v>
       </c>
       <c r="C53">
-        <v>1.280092027888196</v>
+        <v>1.385864701512679</v>
       </c>
       <c r="D53">
         <v>1.292367144006697</v>
@@ -8753,7 +8753,7 @@
         <v>1.254484642195373</v>
       </c>
       <c r="C54">
-        <v>1.248875755491291</v>
+        <v>1.333886277167564</v>
       </c>
       <c r="D54">
         <v>1.259636985736792</v>
@@ -8908,7 +8908,7 @@
         <v>0.9118824985824371</v>
       </c>
       <c r="C55">
-        <v>0.9100504352081168</v>
+        <v>0.9582665668632715</v>
       </c>
       <c r="D55">
         <v>0.914165725944312</v>
@@ -9063,7 +9063,7 @@
         <v>0.8197810887309879</v>
       </c>
       <c r="C56">
-        <v>0.8185339934314698</v>
+        <v>0.8566876594023194</v>
       </c>
       <c r="D56">
         <v>0.8208041013137636</v>
@@ -9218,7 +9218,7 @@
         <v>0.2780053353109617</v>
       </c>
       <c r="C57">
-        <v>0.2802409006933823</v>
+        <v>0.3059084382741258</v>
       </c>
       <c r="D57">
         <v>0.2752431058338278</v>
@@ -9373,7 +9373,7 @@
         <v>0.305135230602851</v>
       </c>
       <c r="C58">
-        <v>0.307122515473194</v>
+        <v>0.3293463138101435</v>
       </c>
       <c r="D58">
         <v>0.3023834961341697</v>
@@ -9528,7 +9528,7 @@
         <v>0.9677818983015242</v>
       </c>
       <c r="C59">
-        <v>0.9653437101630069</v>
+        <v>1.016700246231457</v>
       </c>
       <c r="D59">
         <v>0.9679866653937124</v>
@@ -9683,7 +9683,7 @@
         <v>1.016617622556973</v>
       </c>
       <c r="C60">
-        <v>1.012500347037275</v>
+        <v>1.063000856164264</v>
       </c>
       <c r="D60">
         <v>1.01653724107242</v>
@@ -9838,7 +9838,7 @@
         <v>0.9627869511513257</v>
       </c>
       <c r="C61">
-        <v>0.9600335098576175</v>
+        <v>1.019861959598145</v>
       </c>
       <c r="D61">
         <v>0.9618013499402578</v>
@@ -9993,7 +9993,7 @@
         <v>0.9807703744458425</v>
       </c>
       <c r="C62">
-        <v>0.9776416778643046</v>
+        <v>1.044107195861401</v>
       </c>
       <c r="D62">
         <v>0.9799985767770225</v>
@@ -10148,7 +10148,7 @@
         <v>1.725966442567639</v>
       </c>
       <c r="C63">
-        <v>1.715449906492444</v>
+        <v>1.955712778352741</v>
       </c>
       <c r="D63">
         <v>1.741794179902753</v>
@@ -10303,7 +10303,7 @@
         <v>1.715806189755957</v>
       </c>
       <c r="C64">
-        <v>1.705614065555924</v>
+        <v>1.938492711667397</v>
       </c>
       <c r="D64">
         <v>1.730040800173521</v>
@@ -10458,7 +10458,7 @@
         <v>1.674374811821742</v>
       </c>
       <c r="C65">
-        <v>1.664804699767476</v>
+        <v>1.853472242177145</v>
       </c>
       <c r="D65">
         <v>1.682400056803742</v>
@@ -10613,7 +10613,7 @@
         <v>1.413762223506355</v>
       </c>
       <c r="C66">
-        <v>1.407443650632631</v>
+        <v>1.55571227004196</v>
       </c>
       <c r="D66">
         <v>1.416956842792995</v>
@@ -10768,7 +10768,7 @@
         <v>0.9351379318822624</v>
       </c>
       <c r="C67">
-        <v>0.9314946088612768</v>
+        <v>1.032854664406683</v>
       </c>
       <c r="D67">
         <v>0.9262660703589142</v>
@@ -10923,7 +10923,7 @@
         <v>1.037702488483411</v>
       </c>
       <c r="C68">
-        <v>1.0305721263313</v>
+        <v>1.128884167742598</v>
       </c>
       <c r="D68">
         <v>1.02825652415637</v>
@@ -11078,7 +11078,7 @@
         <v>1.117916367596221</v>
       </c>
       <c r="C69">
-        <v>1.111114768478082</v>
+        <v>1.231123923857274</v>
       </c>
       <c r="D69">
         <v>1.112493024373567</v>
@@ -11233,7 +11233,7 @@
         <v>1.407306040089171</v>
       </c>
       <c r="C70">
-        <v>1.40009860539082</v>
+        <v>1.577427547516803</v>
       </c>
       <c r="D70">
         <v>1.406435784184382</v>
@@ -11388,7 +11388,7 @@
         <v>1.171071828637692</v>
       </c>
       <c r="C71">
-        <v>1.170752641137454</v>
+        <v>1.333298080051702</v>
       </c>
       <c r="D71">
         <v>1.170489143282354</v>
@@ -11543,7 +11543,7 @@
         <v>1.093970017582767</v>
       </c>
       <c r="C72">
-        <v>1.094137562916016</v>
+        <v>1.255306145889133</v>
       </c>
       <c r="D72">
         <v>1.093584098385948</v>
@@ -11698,7 +11698,7 @@
         <v>1.170368564713304</v>
       </c>
       <c r="C73">
-        <v>1.16829619500743</v>
+        <v>1.311906613095918</v>
       </c>
       <c r="D73">
         <v>1.171394908729332</v>
@@ -11853,7 +11853,7 @@
         <v>1.159538899397463</v>
       </c>
       <c r="C74">
-        <v>1.157349588989979</v>
+        <v>1.290595733548666</v>
       </c>
       <c r="D74">
         <v>1.159173243155388</v>
@@ -12008,7 +12008,7 @@
         <v>0.3999595218815558</v>
       </c>
       <c r="C75">
-        <v>0.3983243775817765</v>
+        <v>0.4004417789580117</v>
       </c>
       <c r="D75">
         <v>0.4017678922523585</v>
@@ -12163,7 +12163,7 @@
         <v>0.2242122420862152</v>
       </c>
       <c r="C76">
-        <v>0.2196837898132336</v>
+        <v>0.2098346370413737</v>
       </c>
       <c r="D76">
         <v>0.2224751567938542</v>
@@ -12318,7 +12318,7 @@
         <v>-0.0651755492183016</v>
       </c>
       <c r="C77">
-        <v>-0.1215627907842976</v>
+        <v>-0.134488317849601</v>
       </c>
       <c r="D77">
         <v>-0.06602268898199733</v>
@@ -12473,7 +12473,7 @@
         <v>0.4701449430910825</v>
       </c>
       <c r="C78">
-        <v>0.4684111847392377</v>
+        <v>0.5115738473705508</v>
       </c>
       <c r="D78">
         <v>0.4455525571612027</v>
@@ -12628,7 +12628,7 @@
         <v>0.7064192565838565</v>
       </c>
       <c r="C79">
-        <v>0.7058295746334426</v>
+        <v>0.7680553565753787</v>
       </c>
       <c r="D79">
         <v>0.6971097713365972</v>
@@ -12783,7 +12783,7 @@
         <v>0.6070174637982838</v>
       </c>
       <c r="C80">
-        <v>0.6078285283569537</v>
+        <v>0.6736363256059597</v>
       </c>
       <c r="D80">
         <v>0.5969701969013278</v>
@@ -12938,7 +12938,7 @@
         <v>0.2697073335990384</v>
       </c>
       <c r="C81">
-        <v>0.2662025299843653</v>
+        <v>0.2671018265170643</v>
       </c>
       <c r="D81">
         <v>0.2733608561439887</v>
@@ -13093,7 +13093,7 @@
         <v>0.3234505704054202</v>
       </c>
       <c r="C82">
-        <v>0.3286675764649346</v>
+        <v>0.3824097813653705</v>
       </c>
       <c r="D82">
         <v>0.2858446525909052</v>
@@ -13248,7 +13248,7 @@
         <v>-0.05526146906332136</v>
       </c>
       <c r="C83">
-        <v>-0.05546867786452127</v>
+        <v>-0.05124223606150702</v>
       </c>
       <c r="D83">
         <v>-0.04581496935749525</v>
@@ -13403,7 +13403,7 @@
         <v>-0.1687425549640052</v>
       </c>
       <c r="C84">
-        <v>-0.1678660546176366</v>
+        <v>-0.1677363021246468</v>
       </c>
       <c r="D84">
         <v>-0.1572638670427104</v>
@@ -13558,7 +13558,7 @@
         <v>-0.1815213289423405</v>
       </c>
       <c r="C85">
-        <v>-0.1768272260054639</v>
+        <v>-0.2330062845752818</v>
       </c>
       <c r="D85">
         <v>-0.1115338253862259</v>
@@ -13713,7 +13713,7 @@
         <v>-0.3839869653985182</v>
       </c>
       <c r="C86">
-        <v>-0.3807365665278551</v>
+        <v>-0.3177632585026564</v>
       </c>
       <c r="D86">
         <v>-0.4174909851188527</v>
@@ -13868,7 +13868,7 @@
         <v>-0.6086317787387159</v>
       </c>
       <c r="C87">
-        <v>-0.6101427000637925</v>
+        <v>-0.617171183702468</v>
       </c>
       <c r="D87">
         <v>-0.6068432039164449</v>
@@ -14023,7 +14023,7 @@
         <v>-0.4535782943623752</v>
       </c>
       <c r="C88">
-        <v>-0.4542898576092755</v>
+        <v>-0.3239133254851859</v>
       </c>
       <c r="D88">
         <v>-0.546763019666645</v>
@@ -14178,7 +14178,7 @@
         <v>-0.2030962195891818</v>
       </c>
       <c r="C89">
-        <v>-0.2012157895029023</v>
+        <v>-0.1422659638130288</v>
       </c>
       <c r="D89">
         <v>-0.2292887251025134</v>
@@ -14333,7 +14333,7 @@
         <v>-0.6536770922536084</v>
       </c>
       <c r="C90">
-        <v>-0.6538264311095192</v>
+        <v>-0.6549982355236162</v>
       </c>
       <c r="D90">
         <v>-0.6469250543566164</v>
@@ -14488,7 +14488,7 @@
         <v>-0.762051102016013</v>
       </c>
       <c r="C91">
-        <v>-0.7632749848791294</v>
+        <v>-0.7707967073906291</v>
       </c>
       <c r="D91">
         <v>-0.7579486298838181</v>
@@ -14643,7 +14643,7 @@
         <v>-0.6910338607839032</v>
       </c>
       <c r="C92">
-        <v>-0.691004165888948</v>
+        <v>-0.6935361792956022</v>
       </c>
       <c r="D92">
         <v>-0.6834682537414311</v>
@@ -14798,7 +14798,7 @@
         <v>-0.4930404960757075</v>
       </c>
       <c r="C93">
-        <v>-0.4959392431431011</v>
+        <v>-0.2906846082282996</v>
       </c>
       <c r="D93">
         <v>-0.7712423918560026</v>
@@ -14953,7 +14953,7 @@
         <v>-0.8468216178966999</v>
       </c>
       <c r="C94">
-        <v>-0.84921853380113</v>
+        <v>-0.860610993712711</v>
       </c>
       <c r="D94">
         <v>-0.8447432648693184</v>
@@ -15108,7 +15108,7 @@
         <v>-0.800258042670818</v>
       </c>
       <c r="C95">
-        <v>-0.801920633413937</v>
+        <v>-0.8081540746184284</v>
       </c>
       <c r="D95">
         <v>-0.7976878033502229</v>
@@ -15263,7 +15263,7 @@
         <v>-0.5052874463713067</v>
       </c>
       <c r="C96">
-        <v>-0.5040167266722619</v>
+        <v>-0.5049407239096796</v>
       </c>
       <c r="D96">
         <v>-0.486137792865045</v>
@@ -15418,7 +15418,7 @@
         <v>-0.4764192434959159</v>
       </c>
       <c r="C97">
-        <v>-0.4750516565368243</v>
+        <v>-0.4757981464961759</v>
       </c>
       <c r="D97">
         <v>-0.4561055526380842</v>
@@ -15573,7 +15573,7 @@
         <v>-0.4967846530941373</v>
       </c>
       <c r="C98">
-        <v>-0.4954498947125117</v>
+        <v>-0.4962077765769174</v>
       </c>
       <c r="D98">
         <v>-0.4774527897257195</v>
@@ -15728,7 +15728,7 @@
         <v>-0.4709999301577676</v>
       </c>
       <c r="C99">
-        <v>-0.474594081894652</v>
+        <v>-0.2629895660432023</v>
       </c>
       <c r="D99">
         <v>-0.7233286097582806</v>
@@ -15883,7 +15883,7 @@
         <v>-0.4239493416064688</v>
       </c>
       <c r="C100">
-        <v>-0.4220195349067071</v>
+        <v>-0.4304122511906426</v>
       </c>
       <c r="D100">
         <v>-0.392776061044112</v>
@@ -16038,7 +16038,7 @@
         <v>-1.274671809928255</v>
       </c>
       <c r="C101">
-        <v>-1.275069112249625</v>
+        <v>-1.300689294146847</v>
       </c>
       <c r="D101">
         <v>-1.275128200171852</v>
@@ -16193,7 +16193,7 @@
         <v>-1.41028055952376</v>
       </c>
       <c r="C102">
-        <v>-1.415975762601681</v>
+        <v>-1.458790370815161</v>
       </c>
       <c r="D102">
         <v>-1.409254792430276</v>
@@ -16348,7 +16348,7 @@
         <v>-1.710708425068103</v>
       </c>
       <c r="C103">
-        <v>-1.722151976879071</v>
+        <v>-1.790776833134185</v>
       </c>
       <c r="D103">
         <v>-1.707003376763158</v>
@@ -16503,7 +16503,7 @@
         <v>-1.791636807077138</v>
       </c>
       <c r="C104">
-        <v>-1.803816819440494</v>
+        <v>-1.876661858279846</v>
       </c>
       <c r="D104">
         <v>-1.78754873034466</v>
@@ -16658,7 +16658,7 @@
         <v>-1.767925582504996</v>
       </c>
       <c r="C105">
-        <v>-1.778381067614801</v>
+        <v>-1.84153869254446</v>
       </c>
       <c r="D105">
         <v>-1.764515237799092</v>
@@ -16813,7 +16813,7 @@
         <v>-1.129166864119799</v>
       </c>
       <c r="C106">
-        <v>-1.126309571961246</v>
+        <v>-1.141406841527059</v>
       </c>
       <c r="D106">
         <v>-1.128772186919934</v>
@@ -16968,7 +16968,7 @@
         <v>-0.5361117368577133</v>
       </c>
       <c r="C107">
-        <v>-0.5400933569815727</v>
+        <v>-0.3176650160195481</v>
       </c>
       <c r="D107">
         <v>-0.7748825146318983</v>
@@ -17123,7 +17123,7 @@
         <v>-0.5574908944214472</v>
       </c>
       <c r="C108">
-        <v>-0.5566911714748762</v>
+        <v>-0.555913106383176</v>
       </c>
       <c r="D108">
         <v>-0.544470589777313</v>
@@ -17278,7 +17278,7 @@
         <v>-0.4222626830663394</v>
       </c>
       <c r="C109">
-        <v>-0.4203494295783146</v>
+        <v>-0.42686865935449</v>
       </c>
       <c r="D109">
         <v>-0.3900336909392271</v>
@@ -17433,7 +17433,7 @@
         <v>0.3203657897696547</v>
       </c>
       <c r="C110">
-        <v>0.3230702956017188</v>
+        <v>0.4004517366521265</v>
       </c>
       <c r="D110">
         <v>0.3095716245367774</v>
@@ -17588,7 +17588,7 @@
         <v>0.5070430861068441</v>
       </c>
       <c r="C111">
-        <v>0.5093429098559992</v>
+        <v>0.5921419271041274</v>
       </c>
       <c r="D111">
         <v>0.4991026396803453</v>
@@ -17743,7 +17743,7 @@
         <v>0.5604805939693354</v>
       </c>
       <c r="C112">
-        <v>0.5627942189512811</v>
+        <v>0.6544450714398065</v>
       </c>
       <c r="D112">
         <v>0.553036050882322</v>
@@ -17898,7 +17898,7 @@
         <v>1.028208944442076</v>
       </c>
       <c r="C113">
-        <v>1.027816861329783</v>
+        <v>1.139324114415675</v>
       </c>
       <c r="D113">
         <v>1.0264275943603</v>
@@ -18053,7 +18053,7 @@
         <v>1.323376354535597</v>
       </c>
       <c r="C114">
-        <v>1.320476083285393</v>
+        <v>1.449840401084676</v>
       </c>
       <c r="D114">
         <v>1.325448713891456</v>
@@ -18208,7 +18208,7 @@
         <v>1.779918480402243</v>
       </c>
       <c r="C115">
-        <v>1.772951040350997</v>
+        <v>1.936202759884607</v>
       </c>
       <c r="D115">
         <v>1.791050633976362</v>
@@ -18363,7 +18363,7 @@
         <v>2.084804469084753</v>
       </c>
       <c r="C116">
-        <v>2.074093762431961</v>
+        <v>2.252205088517316</v>
       </c>
       <c r="D116">
         <v>2.100616042871458</v>
@@ -18518,7 +18518,7 @@
         <v>1.983660945358781</v>
       </c>
       <c r="C117">
-        <v>1.975840203183273</v>
+        <v>2.147487919592872</v>
       </c>
       <c r="D117">
         <v>1.997748423464313</v>
@@ -18673,7 +18673,7 @@
         <v>1.779313483399523</v>
       </c>
       <c r="C118">
-        <v>1.7724943511727</v>
+        <v>1.931769210205264</v>
       </c>
       <c r="D118">
         <v>1.789199932606152</v>
@@ -18828,7 +18828,7 @@
         <v>2.223409166843217</v>
       </c>
       <c r="C119">
-        <v>2.211773050131034</v>
+        <v>2.381948740921486</v>
       </c>
       <c r="D119">
         <v>2.242717188063315</v>
@@ -18983,7 +18983,7 @@
         <v>2.136945670260948</v>
       </c>
       <c r="C120">
-        <v>2.126285676948938</v>
+        <v>2.297596118668992</v>
       </c>
       <c r="D120">
         <v>2.1557225322811</v>
@@ -19138,7 +19138,7 @@
         <v>2.206177148549816</v>
       </c>
       <c r="C121">
-        <v>2.194888302960006</v>
+        <v>2.373618498258861</v>
       </c>
       <c r="D121">
         <v>2.227989486715957</v>
@@ -19293,7 +19293,7 @@
         <v>1.660077966860216</v>
       </c>
       <c r="C122">
-        <v>1.654113109670762</v>
+        <v>1.802260768733745</v>
       </c>
       <c r="D122">
         <v>1.669054683858919</v>
@@ -19448,7 +19448,7 @@
         <v>1.434006952808378</v>
       </c>
       <c r="C123">
-        <v>1.431201839147207</v>
+        <v>1.570652381522931</v>
       </c>
       <c r="D123">
         <v>1.43974303426454</v>
@@ -19603,7 +19603,7 @@
         <v>1.492847445054572</v>
       </c>
       <c r="C124">
-        <v>1.489347223985143</v>
+        <v>1.635283208114581</v>
       </c>
       <c r="D124">
         <v>1.499091995712405</v>
@@ -19758,7 +19758,7 @@
         <v>1.077917139305842</v>
       </c>
       <c r="C125">
-        <v>1.077186281976084</v>
+        <v>1.191080968177286</v>
       </c>
       <c r="D125">
         <v>1.076830665883057</v>
@@ -19913,7 +19913,7 @@
         <v>1.45540476684463</v>
       </c>
       <c r="C126">
-        <v>1.451340577350388</v>
+        <v>1.587705311991289</v>
       </c>
       <c r="D126">
         <v>1.459621805889952</v>
@@ -20068,7 +20068,7 @@
         <v>1.150735516259332</v>
       </c>
       <c r="C127">
-        <v>1.149644464809763</v>
+        <v>1.275578621991441</v>
       </c>
       <c r="D127">
         <v>1.150625546840959</v>
@@ -20223,7 +20223,7 @@
         <v>1.284088866300101</v>
       </c>
       <c r="C128">
-        <v>1.281619670112927</v>
+        <v>1.415091349802655</v>
       </c>
       <c r="D128">
         <v>1.284885291924542</v>
@@ -20378,7 +20378,7 @@
         <v>1.140711689264302</v>
       </c>
       <c r="C129">
-        <v>1.139680625473074</v>
+        <v>1.260165844998416</v>
       </c>
       <c r="D129">
         <v>1.139431265045634</v>
@@ -20533,7 +20533,7 @@
         <v>1.505547204413281</v>
       </c>
       <c r="C130">
-        <v>1.501304973872174</v>
+        <v>1.645182397911672</v>
       </c>
       <c r="D130">
         <v>1.510339719493512</v>
@@ -20688,7 +20688,7 @@
         <v>0.5913208021334158</v>
       </c>
       <c r="C131">
-        <v>0.5927353748533853</v>
+        <v>0.6839333083194281</v>
       </c>
       <c r="D131">
         <v>0.5833428217367271</v>
@@ -20843,7 +20843,7 @@
         <v>0.5328160119989028</v>
       </c>
       <c r="C132">
-        <v>0.5348153793075618</v>
+        <v>0.623822310425387</v>
       </c>
       <c r="D132">
         <v>0.5244852355258134</v>
@@ -20998,7 +20998,7 @@
         <v>0.5733789797276935</v>
       </c>
       <c r="C133">
-        <v>0.5753252055094604</v>
+        <v>0.6656792479090403</v>
       </c>
       <c r="D133">
         <v>0.5656978110651637</v>
@@ -21153,7 +21153,7 @@
         <v>0.8077233968641458</v>
       </c>
       <c r="C134">
-        <v>0.8087509337195895</v>
+        <v>0.9124062851953783</v>
       </c>
       <c r="D134">
         <v>0.8031777458334767</v>
@@ -21308,7 +21308,7 @@
         <v>0.3415017172097311</v>
       </c>
       <c r="C135">
-        <v>0.3441018261306056</v>
+        <v>0.4173659595475535</v>
       </c>
       <c r="D135">
         <v>0.3313113182273201</v>
@@ -21463,7 +21463,7 @@
         <v>0.4868149186032282</v>
       </c>
       <c r="C136">
-        <v>0.4893278227249354</v>
+        <v>0.5767352406515757</v>
       </c>
       <c r="D136">
         <v>0.4784525410719426</v>
@@ -21618,7 +21618,7 @@
         <v>0.9770262538459702</v>
       </c>
       <c r="C137">
-        <v>0.9769663261410476</v>
+        <v>1.086004056313912</v>
       </c>
       <c r="D137">
         <v>0.9745458094558959</v>
